--- a/src/main/resources/static/excelTemplate/moa_kintai_template.xlsx
+++ b/src/main/resources/static/excelTemplate/moa_kintai_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\OS1PEPF0000AEB4\EXCELCNV\233edab0-da9f-498b-b520-e16db1c57fef\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{417D9418-D361-4263-9D50-498D4DD9E132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2F00A30-2D82-4FF9-9C47-98B97B3231EE}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{417D9418-D361-4263-9D50-498D4DD9E132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33C90EC7-ED5D-4CA5-9853-1944C71DC99F}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,12 +165,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="d"/>
     <numFmt numFmtId="177" formatCode="h:mm;@"/>
     <numFmt numFmtId="178" formatCode="0.0_ ;0.0_ ;"/>
-    <numFmt numFmtId="180" formatCode="[hh]:mm"/>
-    <numFmt numFmtId="181" formatCode="[$-411]aaa"/>
+    <numFmt numFmtId="179" formatCode="[hh]:mm"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -539,9 +538,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -557,10 +553,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -585,14 +591,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -626,16 +624,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -643,7 +642,17 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -937,7 +946,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="AA10" sqref="AA10:AC10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -951,7 +962,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="1" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A1" s="13"/>
+      <c r="A1" s="12"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1021,42 +1032,42 @@
       <c r="AG2" s="2"/>
     </row>
     <row r="3" spans="1:33" ht="30" customHeight="1">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
     </row>
     <row r="4" spans="1:33" ht="25.15" customHeight="1">
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="6" t="s">
         <v>1</v>
       </c>
@@ -1064,30 +1075,30 @@
       <c r="F4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="20" t="s">
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="20"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
       <c r="AE4" s="7"/>
     </row>
     <row r="5" spans="1:33" ht="10.15" customHeight="1" thickBot="1">
@@ -1099,10 +1110,10 @@
       <c r="AE5" s="5"/>
     </row>
     <row r="6" spans="1:33" ht="22.5" customHeight="1">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="15" t="s">
@@ -1128,135 +1139,138 @@
       </c>
       <c r="Q6" s="15"/>
       <c r="R6" s="15"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24" t="s">
+      <c r="S6" s="16"/>
+      <c r="T6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="29"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="28"/>
     </row>
     <row r="7" spans="1:33" ht="22.5" customHeight="1">
-      <c r="B7" s="8"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="39"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="39">
+        <f>H7-D7-L7</f>
+        <v>0</v>
+      </c>
       <c r="Q7" s="39"/>
       <c r="R7" s="39"/>
       <c r="S7" s="40"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="31"/>
-      <c r="AC7" s="31"/>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="32"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="31"/>
     </row>
     <row r="8" spans="1:33" ht="22.5" customHeight="1">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="35"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="34"/>
       <c r="P8" s="41"/>
       <c r="Q8" s="41"/>
       <c r="R8" s="41"/>
       <c r="S8" s="42"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="37"/>
-      <c r="AE8" s="38"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="37"/>
     </row>
     <row r="9" spans="1:33" ht="22.5" customHeight="1">
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="12"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
     </row>
     <row r="10" spans="1:33" ht="22.5" customHeight="1">
-      <c r="V10" s="22" t="s">
+      <c r="V10" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="27"/>
-      <c r="AC10" s="27"/>
-      <c r="AD10" s="23" t="s">
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="38"/>
+      <c r="AC10" s="38"/>
+      <c r="AD10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="AE10" s="23"/>
+      <c r="AE10" s="26"/>
     </row>
     <row r="15" spans="1:33" s="1" customFormat="1">
       <c r="A15" s="2"/>
@@ -1319,20 +1333,28 @@
     <mergeCell ref="H7:K7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B7:B9">
-    <cfRule type="expression" dxfId="3" priority="21" stopIfTrue="1">
-      <formula>WEEKDAY(B7)=7</formula>
+  <conditionalFormatting sqref="B8:B9">
+    <cfRule type="expression" dxfId="5" priority="23" stopIfTrue="1">
+      <formula>WEEKDAY(B8)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="22" stopIfTrue="1">
-      <formula>WEEKDAY(B7)=1</formula>
+    <cfRule type="expression" dxfId="4" priority="24" stopIfTrue="1">
+      <formula>WEEKDAY(B8)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
       <formula>WEEKDAY(C7)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
       <formula>WEEKDAY(C7)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>WEEKDAY(B7)=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>WEEKDAY(B7)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.59055118110236227" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -1351,12 +1373,12 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="8" spans="2:5" ht="15.75">
-      <c r="B8" s="26">
+      <c r="B8" s="18">
         <v>0.72222222222222221</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
